--- a/tut04/output_by_subject/CS695.xlsx
+++ b/tut04/output_by_subject/CS695.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,374 +424,119 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>rollno</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>register_sem</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>subno</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>sub_type</t>
+          <t>rollnoregister_semsubnosub_type</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2011CS02</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CS695</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2011CS023CS695CORE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2011CS03</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CS695</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2011CS033CS695CORE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2011CS05</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>CS695</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2011CS053CS695CORE</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2011CS06</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>CS695</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2011CS063CS695CORE</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2011CS07</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>CS695</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2011CS073CS695CORE</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2011CS08</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CS695</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2011CS083CS695CORE</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2011CS09</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CS695</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2011CS093CS695CORE</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2011CS10</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>CS695</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2011CS103CS695CORE</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2011CS13</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>CS695</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2011CS133CS695CORE</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2011CS16</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>CS695</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2011CS163CS695CORE</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2011CS17</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>CS695</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2011CS173CS695CORE</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2011CS18</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>CS695</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2011CS183CS695CORE</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2011CS21</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>CS695</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2011CS213CS695CORE</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2011CS22</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>CS695</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2011CS223CS695CORE</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2011CS23</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>CS695</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2011CS233CS695CORE</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2011CS25</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>CS695</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2011CS253CS695CORE</t>
         </is>
       </c>
     </row>
